--- a/merged_output.xlsx
+++ b/merged_output.xlsx
@@ -1492,6 +1492,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>明角　広夢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西山　裕之</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中山　修</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野田　誠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田　慶彦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>坂上　雅則</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1644,26 +1664,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>明角　広夢</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>西山　裕之</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中山　修</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>野田　誠</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡田　慶彦</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>関西機工建設株式会社</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2616,6 +2616,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>山本　真斗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>占部　敦巳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>中野　旅人</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2624,6 +2632,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>松井　萌華</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>寺田　浩規</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2660,18 +2672,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山本　真斗</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>占部　敦巳</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>松井　萌華</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EE0006</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2744,6 +2744,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>深沢　光雄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小南　竜樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新谷　英平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>谷口　修平</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2761,18 +2773,6 @@
   </si>
   <si>
     <t>田中　真智子</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>深沢　光雄</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小南　竜樹</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新谷　英平</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -12258,7 +12258,7 @@
         <v>368</v>
       </c>
       <c r="C323">
-        <v>125</v>
+        <v>1001</v>
       </c>
       <c r="D323" t="s">
         <v>369</v>
@@ -12281,7 +12281,7 @@
         <v>368</v>
       </c>
       <c r="C324">
-        <v>142</v>
+        <v>1003</v>
       </c>
       <c r="D324" t="s">
         <v>370</v>
@@ -12290,10 +12290,10 @@
         <v>0</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>7272</v>
       </c>
       <c r="G324">
-        <v>0</v>
+        <v>-7272</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -12304,7 +12304,7 @@
         <v>368</v>
       </c>
       <c r="C325">
-        <v>149</v>
+        <v>1004</v>
       </c>
       <c r="D325" t="s">
         <v>371</v>
@@ -12313,10 +12313,10 @@
         <v>0</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>2727</v>
       </c>
       <c r="G325">
-        <v>0</v>
+        <v>-2727</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12327,7 +12327,7 @@
         <v>368</v>
       </c>
       <c r="C326">
-        <v>162</v>
+        <v>1009</v>
       </c>
       <c r="D326" t="s">
         <v>372</v>
@@ -12336,10 +12336,10 @@
         <v>0</v>
       </c>
       <c r="F326">
-        <v>3636</v>
+        <v>1818</v>
       </c>
       <c r="G326">
-        <v>-3636</v>
+        <v>-1818</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -12350,7 +12350,7 @@
         <v>368</v>
       </c>
       <c r="C327">
-        <v>165</v>
+        <v>1018</v>
       </c>
       <c r="D327" t="s">
         <v>373</v>
@@ -12359,10 +12359,10 @@
         <v>0</v>
       </c>
       <c r="F327">
-        <v>16364</v>
+        <v>0</v>
       </c>
       <c r="G327">
-        <v>-16364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -12373,7 +12373,7 @@
         <v>368</v>
       </c>
       <c r="C328">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D328" t="s">
         <v>374</v>
@@ -12382,10 +12382,10 @@
         <v>0</v>
       </c>
       <c r="F328">
-        <v>3636</v>
+        <v>0</v>
       </c>
       <c r="G328">
-        <v>-3636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -12396,7 +12396,7 @@
         <v>368</v>
       </c>
       <c r="C329">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="D329" t="s">
         <v>375</v>
@@ -12405,10 +12405,10 @@
         <v>0</v>
       </c>
       <c r="F329">
-        <v>7273</v>
+        <v>0</v>
       </c>
       <c r="G329">
-        <v>-7273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -12419,7 +12419,7 @@
         <v>368</v>
       </c>
       <c r="C330">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="D330" t="s">
         <v>376</v>
@@ -12428,10 +12428,10 @@
         <v>0</v>
       </c>
       <c r="F330">
-        <v>72728</v>
+        <v>0</v>
       </c>
       <c r="G330">
-        <v>-72728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -12442,7 +12442,7 @@
         <v>368</v>
       </c>
       <c r="C331">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="D331" t="s">
         <v>377</v>
@@ -12451,10 +12451,10 @@
         <v>0</v>
       </c>
       <c r="F331">
-        <v>10909</v>
+        <v>3636</v>
       </c>
       <c r="G331">
-        <v>-10909</v>
+        <v>-3636</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -12465,7 +12465,7 @@
         <v>368</v>
       </c>
       <c r="C332">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="D332" t="s">
         <v>378</v>
@@ -12474,10 +12474,10 @@
         <v>0</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>16364</v>
       </c>
       <c r="G332">
-        <v>0</v>
+        <v>-16364</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -12488,7 +12488,7 @@
         <v>368</v>
       </c>
       <c r="C333">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="D333" t="s">
         <v>379</v>
@@ -12497,10 +12497,10 @@
         <v>0</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>3636</v>
       </c>
       <c r="G333">
-        <v>0</v>
+        <v>-3636</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -12511,7 +12511,7 @@
         <v>368</v>
       </c>
       <c r="C334">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="D334" t="s">
         <v>380</v>
@@ -12520,10 +12520,10 @@
         <v>0</v>
       </c>
       <c r="F334">
-        <v>20000</v>
+        <v>7273</v>
       </c>
       <c r="G334">
-        <v>-20000</v>
+        <v>-7273</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -12534,7 +12534,7 @@
         <v>368</v>
       </c>
       <c r="C335">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D335" t="s">
         <v>381</v>
@@ -12543,10 +12543,10 @@
         <v>0</v>
       </c>
       <c r="F335">
-        <v>7272</v>
+        <v>72728</v>
       </c>
       <c r="G335">
-        <v>-7272</v>
+        <v>-72728</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -12557,19 +12557,19 @@
         <v>368</v>
       </c>
       <c r="C336">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D336" t="s">
-        <v>137</v>
+        <v>382</v>
       </c>
       <c r="E336">
         <v>0</v>
       </c>
       <c r="F336">
-        <v>3636</v>
+        <v>10909</v>
       </c>
       <c r="G336">
-        <v>-3636</v>
+        <v>-10909</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -12580,10 +12580,10 @@
         <v>368</v>
       </c>
       <c r="C337">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D337" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -12603,10 +12603,10 @@
         <v>368</v>
       </c>
       <c r="C338">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D338" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -12626,19 +12626,19 @@
         <v>368</v>
       </c>
       <c r="C339">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="D339" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E339">
         <v>0</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G339">
-        <v>0</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -12649,19 +12649,19 @@
         <v>368</v>
       </c>
       <c r="C340">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="D340" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E340">
         <v>0</v>
       </c>
       <c r="F340">
-        <v>7273</v>
+        <v>7272</v>
       </c>
       <c r="G340">
-        <v>-7273</v>
+        <v>-7272</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -12672,19 +12672,19 @@
         <v>368</v>
       </c>
       <c r="C341">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="D341" t="s">
-        <v>386</v>
+        <v>137</v>
       </c>
       <c r="E341">
         <v>0</v>
       </c>
       <c r="F341">
-        <v>5455</v>
+        <v>3636</v>
       </c>
       <c r="G341">
-        <v>-5455</v>
+        <v>-3636</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -12695,7 +12695,7 @@
         <v>368</v>
       </c>
       <c r="C342">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="D342" t="s">
         <v>387</v>
@@ -12718,7 +12718,7 @@
         <v>368</v>
       </c>
       <c r="C343">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="D343" t="s">
         <v>388</v>
@@ -12727,10 +12727,10 @@
         <v>0</v>
       </c>
       <c r="F343">
-        <v>19091</v>
+        <v>0</v>
       </c>
       <c r="G343">
-        <v>-19091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -12741,7 +12741,7 @@
         <v>368</v>
       </c>
       <c r="C344">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="D344" t="s">
         <v>389</v>
@@ -12750,10 +12750,10 @@
         <v>0</v>
       </c>
       <c r="F344">
-        <v>2727</v>
+        <v>0</v>
       </c>
       <c r="G344">
-        <v>-2727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -12764,7 +12764,7 @@
         <v>368</v>
       </c>
       <c r="C345">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="D345" t="s">
         <v>390</v>
@@ -12773,10 +12773,10 @@
         <v>0</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>7273</v>
       </c>
       <c r="G345">
-        <v>0</v>
+        <v>-7273</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -12787,7 +12787,7 @@
         <v>368</v>
       </c>
       <c r="C346">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D346" t="s">
         <v>391</v>
@@ -12796,10 +12796,10 @@
         <v>0</v>
       </c>
       <c r="F346">
-        <v>0</v>
+        <v>5455</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>-5455</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -12810,7 +12810,7 @@
         <v>368</v>
       </c>
       <c r="C347">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D347" t="s">
         <v>392</v>
@@ -12833,7 +12833,7 @@
         <v>368</v>
       </c>
       <c r="C348">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="D348" t="s">
         <v>393</v>
@@ -12842,10 +12842,10 @@
         <v>0</v>
       </c>
       <c r="F348">
-        <v>0</v>
+        <v>19091</v>
       </c>
       <c r="G348">
-        <v>0</v>
+        <v>-19091</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -12856,7 +12856,7 @@
         <v>368</v>
       </c>
       <c r="C349">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="D349" t="s">
         <v>394</v>
@@ -12865,10 +12865,10 @@
         <v>0</v>
       </c>
       <c r="F349">
-        <v>0</v>
+        <v>2727</v>
       </c>
       <c r="G349">
-        <v>0</v>
+        <v>-2727</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -12879,7 +12879,7 @@
         <v>368</v>
       </c>
       <c r="C350">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="D350" t="s">
         <v>395</v>
@@ -12888,10 +12888,10 @@
         <v>0</v>
       </c>
       <c r="F350">
-        <v>3636</v>
+        <v>0</v>
       </c>
       <c r="G350">
-        <v>-3636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -12902,7 +12902,7 @@
         <v>368</v>
       </c>
       <c r="C351">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="D351" t="s">
         <v>396</v>
@@ -12925,7 +12925,7 @@
         <v>368</v>
       </c>
       <c r="C352">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="D352" t="s">
         <v>397</v>
@@ -12948,7 +12948,7 @@
         <v>368</v>
       </c>
       <c r="C353">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="D353" t="s">
         <v>398</v>
@@ -12957,10 +12957,10 @@
         <v>0</v>
       </c>
       <c r="F353">
-        <v>14546</v>
+        <v>0</v>
       </c>
       <c r="G353">
-        <v>-14546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -12971,7 +12971,7 @@
         <v>368</v>
       </c>
       <c r="C354">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="D354" t="s">
         <v>399</v>
@@ -12980,10 +12980,10 @@
         <v>0</v>
       </c>
       <c r="F354">
-        <v>2727</v>
+        <v>0</v>
       </c>
       <c r="G354">
-        <v>-2727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -12994,7 +12994,7 @@
         <v>368</v>
       </c>
       <c r="C355">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="D355" t="s">
         <v>400</v>
@@ -13003,10 +13003,10 @@
         <v>0</v>
       </c>
       <c r="F355">
-        <v>19091</v>
+        <v>3636</v>
       </c>
       <c r="G355">
-        <v>-19091</v>
+        <v>-3636</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -13017,7 +13017,7 @@
         <v>368</v>
       </c>
       <c r="C356">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="D356" t="s">
         <v>401</v>
@@ -13040,7 +13040,7 @@
         <v>368</v>
       </c>
       <c r="C357">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="D357" t="s">
         <v>402</v>
@@ -13063,7 +13063,7 @@
         <v>368</v>
       </c>
       <c r="C358">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="D358" t="s">
         <v>403</v>
@@ -13072,10 +13072,10 @@
         <v>0</v>
       </c>
       <c r="F358">
-        <v>1818</v>
+        <v>14546</v>
       </c>
       <c r="G358">
-        <v>-1818</v>
+        <v>-14546</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -13086,7 +13086,7 @@
         <v>368</v>
       </c>
       <c r="C359">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="D359" t="s">
         <v>404</v>
@@ -13095,10 +13095,10 @@
         <v>0</v>
       </c>
       <c r="F359">
-        <v>3636</v>
+        <v>2727</v>
       </c>
       <c r="G359">
-        <v>-3636</v>
+        <v>-2727</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -13109,7 +13109,7 @@
         <v>368</v>
       </c>
       <c r="C360">
-        <v>553</v>
+        <v>367</v>
       </c>
       <c r="D360" t="s">
         <v>405</v>
@@ -13118,10 +13118,10 @@
         <v>0</v>
       </c>
       <c r="F360">
-        <v>10909</v>
+        <v>19091</v>
       </c>
       <c r="G360">
-        <v>-10909</v>
+        <v>-19091</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -13132,7 +13132,7 @@
         <v>368</v>
       </c>
       <c r="C361">
-        <v>566</v>
+        <v>380</v>
       </c>
       <c r="D361" t="s">
         <v>406</v>
@@ -13141,10 +13141,10 @@
         <v>0</v>
       </c>
       <c r="F361">
-        <v>10909</v>
+        <v>0</v>
       </c>
       <c r="G361">
-        <v>-10909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -13155,7 +13155,7 @@
         <v>368</v>
       </c>
       <c r="C362">
-        <v>1001</v>
+        <v>382</v>
       </c>
       <c r="D362" t="s">
         <v>407</v>
@@ -13178,7 +13178,7 @@
         <v>368</v>
       </c>
       <c r="C363">
-        <v>1003</v>
+        <v>385</v>
       </c>
       <c r="D363" t="s">
         <v>408</v>
@@ -13187,10 +13187,10 @@
         <v>0</v>
       </c>
       <c r="F363">
-        <v>7272</v>
+        <v>1818</v>
       </c>
       <c r="G363">
-        <v>-7272</v>
+        <v>-1818</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -13201,7 +13201,7 @@
         <v>368</v>
       </c>
       <c r="C364">
-        <v>1004</v>
+        <v>393</v>
       </c>
       <c r="D364" t="s">
         <v>409</v>
@@ -13210,10 +13210,10 @@
         <v>0</v>
       </c>
       <c r="F364">
-        <v>2727</v>
+        <v>3636</v>
       </c>
       <c r="G364">
-        <v>-2727</v>
+        <v>-3636</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -13224,7 +13224,7 @@
         <v>368</v>
       </c>
       <c r="C365">
-        <v>1009</v>
+        <v>553</v>
       </c>
       <c r="D365" t="s">
         <v>410</v>
@@ -13233,10 +13233,10 @@
         <v>0</v>
       </c>
       <c r="F365">
-        <v>1818</v>
+        <v>10909</v>
       </c>
       <c r="G365">
-        <v>-1818</v>
+        <v>-10909</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13247,7 +13247,7 @@
         <v>368</v>
       </c>
       <c r="C366">
-        <v>1018</v>
+        <v>566</v>
       </c>
       <c r="D366" t="s">
         <v>411</v>
@@ -13256,10 +13256,10 @@
         <v>0</v>
       </c>
       <c r="F366">
-        <v>0</v>
+        <v>10909</v>
       </c>
       <c r="G366">
-        <v>0</v>
+        <v>-10909</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -16697,16 +16697,16 @@
         <v>649</v>
       </c>
       <c r="C516">
-        <v>125</v>
+        <v>1002</v>
       </c>
       <c r="D516" t="s">
-        <v>369</v>
+        <v>650</v>
       </c>
       <c r="E516">
-        <v>-22776</v>
+        <v>-23772</v>
       </c>
       <c r="F516">
-        <v>-22776</v>
+        <v>-23772</v>
       </c>
       <c r="G516">
         <v>0</v>
@@ -16720,19 +16720,19 @@
         <v>649</v>
       </c>
       <c r="C517">
-        <v>142</v>
+        <v>1025</v>
       </c>
       <c r="D517" t="s">
-        <v>370</v>
+        <v>651</v>
       </c>
       <c r="E517">
-        <v>-50000</v>
+        <v>-40000</v>
       </c>
       <c r="F517">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="G517">
-        <v>0</v>
+        <v>-40000</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -16743,19 +16743,19 @@
         <v>649</v>
       </c>
       <c r="C518">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D518" t="s">
-        <v>650</v>
+        <v>374</v>
       </c>
       <c r="E518">
-        <v>0</v>
+        <v>-22776</v>
       </c>
       <c r="F518">
-        <v>-69052</v>
+        <v>-22776</v>
       </c>
       <c r="G518">
-        <v>69052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -16766,16 +16766,16 @@
         <v>649</v>
       </c>
       <c r="C519">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D519" t="s">
-        <v>651</v>
+        <v>375</v>
       </c>
       <c r="E519">
-        <v>-74000</v>
+        <v>-50000</v>
       </c>
       <c r="F519">
-        <v>-74000</v>
+        <v>-50000</v>
       </c>
       <c r="G519">
         <v>0</v>
@@ -16789,19 +16789,19 @@
         <v>649</v>
       </c>
       <c r="C520">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D520" t="s">
-        <v>372</v>
+        <v>652</v>
       </c>
       <c r="E520">
-        <v>-13350</v>
+        <v>0</v>
       </c>
       <c r="F520">
-        <v>-13350</v>
+        <v>-69052</v>
       </c>
       <c r="G520">
-        <v>0</v>
+        <v>69052</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -16812,19 +16812,19 @@
         <v>649</v>
       </c>
       <c r="C521">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D521" t="s">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="E521">
-        <v>-20020</v>
+        <v>-74000</v>
       </c>
       <c r="F521">
-        <v>0</v>
+        <v>-74000</v>
       </c>
       <c r="G521">
-        <v>-20020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -16835,16 +16835,16 @@
         <v>649</v>
       </c>
       <c r="C522">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="D522" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E522">
-        <v>-10000</v>
+        <v>-13350</v>
       </c>
       <c r="F522">
-        <v>-10000</v>
+        <v>-13350</v>
       </c>
       <c r="G522">
         <v>0</v>
@@ -16858,19 +16858,19 @@
         <v>649</v>
       </c>
       <c r="C523">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="D523" t="s">
-        <v>652</v>
+        <v>380</v>
       </c>
       <c r="E523">
-        <v>-23674</v>
+        <v>-20020</v>
       </c>
       <c r="F523">
-        <v>-23674</v>
+        <v>0</v>
       </c>
       <c r="G523">
-        <v>0</v>
+        <v>-20020</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -16881,19 +16881,19 @@
         <v>649</v>
       </c>
       <c r="C524">
-        <v>280</v>
+        <v>2001</v>
       </c>
       <c r="D524" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E524">
-        <v>-25632</v>
+        <v>-11926</v>
       </c>
       <c r="F524">
-        <v>0</v>
+        <v>-11926</v>
       </c>
       <c r="G524">
-        <v>-25632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -16904,19 +16904,19 @@
         <v>649</v>
       </c>
       <c r="C525">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="D525" t="s">
-        <v>654</v>
+        <v>381</v>
       </c>
       <c r="E525">
-        <v>-23206</v>
+        <v>-10000</v>
       </c>
       <c r="F525">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="G525">
-        <v>-23206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -16927,16 +16927,16 @@
         <v>649</v>
       </c>
       <c r="C526">
-        <v>356</v>
+        <v>217</v>
       </c>
       <c r="D526" t="s">
         <v>655</v>
       </c>
       <c r="E526">
-        <v>-22357</v>
+        <v>-23674</v>
       </c>
       <c r="F526">
-        <v>-22357</v>
+        <v>-23674</v>
       </c>
       <c r="G526">
         <v>0</v>
@@ -16950,19 +16950,19 @@
         <v>649</v>
       </c>
       <c r="C527">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="D527" t="s">
-        <v>401</v>
+        <v>656</v>
       </c>
       <c r="E527">
-        <v>-22594</v>
+        <v>-25632</v>
       </c>
       <c r="F527">
-        <v>-22594</v>
+        <v>0</v>
       </c>
       <c r="G527">
-        <v>0</v>
+        <v>-25632</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -16973,19 +16973,19 @@
         <v>649</v>
       </c>
       <c r="C528">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="D528" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E528">
-        <v>-27762</v>
+        <v>-23206</v>
       </c>
       <c r="F528">
-        <v>-27762</v>
+        <v>0</v>
       </c>
       <c r="G528">
-        <v>0</v>
+        <v>-23206</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -16996,19 +16996,19 @@
         <v>649</v>
       </c>
       <c r="C529">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="D529" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E529">
-        <v>-22074</v>
+        <v>-22357</v>
       </c>
       <c r="F529">
-        <v>-12792</v>
+        <v>-22357</v>
       </c>
       <c r="G529">
-        <v>-9282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -17019,16 +17019,16 @@
         <v>649</v>
       </c>
       <c r="C530">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D530" t="s">
-        <v>658</v>
+        <v>406</v>
       </c>
       <c r="E530">
-        <v>-13301</v>
+        <v>-22594</v>
       </c>
       <c r="F530">
-        <v>-13301</v>
+        <v>-22594</v>
       </c>
       <c r="G530">
         <v>0</v>
@@ -17042,16 +17042,16 @@
         <v>649</v>
       </c>
       <c r="C531">
-        <v>787</v>
+        <v>387</v>
       </c>
       <c r="D531" t="s">
         <v>659</v>
       </c>
       <c r="E531">
-        <v>-12816</v>
+        <v>-27762</v>
       </c>
       <c r="F531">
-        <v>-12816</v>
+        <v>-27762</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -17065,19 +17065,19 @@
         <v>649</v>
       </c>
       <c r="C532">
-        <v>789</v>
+        <v>397</v>
       </c>
       <c r="D532" t="s">
         <v>660</v>
       </c>
       <c r="E532">
-        <v>-19810</v>
+        <v>-22074</v>
       </c>
       <c r="F532">
-        <v>-19810</v>
+        <v>-12792</v>
       </c>
       <c r="G532">
-        <v>0</v>
+        <v>-9282</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -17088,16 +17088,16 @@
         <v>649</v>
       </c>
       <c r="C533">
-        <v>1002</v>
+        <v>398</v>
       </c>
       <c r="D533" t="s">
         <v>661</v>
       </c>
       <c r="E533">
-        <v>-23772</v>
+        <v>-13301</v>
       </c>
       <c r="F533">
-        <v>-23772</v>
+        <v>-13301</v>
       </c>
       <c r="G533">
         <v>0</v>
@@ -17111,19 +17111,19 @@
         <v>649</v>
       </c>
       <c r="C534">
-        <v>1025</v>
+        <v>787</v>
       </c>
       <c r="D534" t="s">
         <v>662</v>
       </c>
       <c r="E534">
-        <v>-40000</v>
+        <v>-12816</v>
       </c>
       <c r="F534">
-        <v>0</v>
+        <v>-12816</v>
       </c>
       <c r="G534">
-        <v>-40000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -17134,16 +17134,16 @@
         <v>649</v>
       </c>
       <c r="C535">
-        <v>2001</v>
+        <v>789</v>
       </c>
       <c r="D535" t="s">
         <v>663</v>
       </c>
       <c r="E535">
-        <v>-11926</v>
+        <v>-19810</v>
       </c>
       <c r="F535">
-        <v>-11926</v>
+        <v>-19810</v>
       </c>
       <c r="G535">
         <v>0</v>
@@ -17502,7 +17502,7 @@
         <v>681</v>
       </c>
       <c r="C551">
-        <v>285</v>
+        <v>1005</v>
       </c>
       <c r="D551" t="s">
         <v>682</v>
@@ -17525,10 +17525,10 @@
         <v>681</v>
       </c>
       <c r="C552">
-        <v>508</v>
+        <v>1009</v>
       </c>
       <c r="D552" t="s">
-        <v>683</v>
+        <v>372</v>
       </c>
       <c r="E552">
         <v>0</v>
@@ -17548,10 +17548,10 @@
         <v>681</v>
       </c>
       <c r="C553">
-        <v>727</v>
+        <v>1020</v>
       </c>
       <c r="D553" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E553">
         <v>0</v>
@@ -17571,10 +17571,10 @@
         <v>681</v>
       </c>
       <c r="C554">
-        <v>732</v>
+        <v>1021</v>
       </c>
       <c r="D554" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E554">
         <v>30000</v>
@@ -17594,19 +17594,19 @@
         <v>681</v>
       </c>
       <c r="C555">
-        <v>768</v>
+        <v>285</v>
       </c>
       <c r="D555" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E555">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F555">
         <v>0</v>
       </c>
       <c r="G555">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -17617,10 +17617,10 @@
         <v>681</v>
       </c>
       <c r="C556">
-        <v>1005</v>
+        <v>508</v>
       </c>
       <c r="D556" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E556">
         <v>0</v>
@@ -17640,10 +17640,10 @@
         <v>681</v>
       </c>
       <c r="C557">
-        <v>1009</v>
+        <v>727</v>
       </c>
       <c r="D557" t="s">
-        <v>410</v>
+        <v>687</v>
       </c>
       <c r="E557">
         <v>0</v>
@@ -17663,19 +17663,19 @@
         <v>681</v>
       </c>
       <c r="C558">
-        <v>1020</v>
+        <v>732</v>
       </c>
       <c r="D558" t="s">
         <v>688</v>
       </c>
       <c r="E558">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F558">
         <v>0</v>
       </c>
       <c r="G558">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -17686,7 +17686,7 @@
         <v>681</v>
       </c>
       <c r="C559">
-        <v>1021</v>
+        <v>768</v>
       </c>
       <c r="D559" t="s">
         <v>689</v>
